--- a/Quản lý thu chi/Quan_ly_thu_chi_don_gian.xlsx
+++ b/Quản lý thu chi/Quan_ly_thu_chi_don_gian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bluesofts\Truyenthong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Quản lý thu chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EB573A-596D-41FD-8D42-C3AEBF29D28B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C335EF-E0C8-4C34-828E-B7A7E5DB86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FE526EF7-9C59-4C70-8911-CE2D0FE31B76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{FE526EF7-9C59-4C70-8911-CE2D0FE31B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Hướng dẫn sử dụng" sheetId="8" r:id="rId1"/>
@@ -2210,7 +2210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2233,9 +2233,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2246,6 +2243,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2282,22 +2295,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2592,7 +2589,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DMKH"/>
@@ -3260,99 +3257,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51CA755-4681-45D7-8FC1-15B8C0F6C2CA}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="29" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="30" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="30" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="30" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="31" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="25" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="25" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="25" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="31" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="25" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="25" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="25" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="31" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="25" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="25" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="32" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="33" t="s">
         <v>605</v>
       </c>
     </row>
@@ -3363,113 +3361,112 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5C9CEC-31EA-4F27-B71A-442883F5258A}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="36" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="36"/>
+    <col min="1" max="1" width="27.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="22" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="25" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="25" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="24" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="26" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="27" t="s">
         <v>589</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="28" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="27" t="s">
         <v>592</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="28" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="27" t="s">
         <v>595</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="28" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="28" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="24" t="s">
         <v>598</v>
       </c>
     </row>
@@ -3480,10 +3477,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CAD2562-185E-4666-BD15-1EE0E37B4827}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:N2"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3506,30 +3504,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="23"/>
-      <c r="L2" s="23" t="s">
+      <c r="J2" s="34"/>
+      <c r="L2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -5056,10 +5054,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D65A82-F11C-42DA-9EAC-8E6FBF13E810}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5074,21 +5073,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -31041,10 +31040,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6BB786-F8E5-4C86-A93F-AD8EB27F5133}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31065,40 +31065,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="35" t="s">
         <v>556</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="J3" s="25" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="J3" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="str">
+      <c r="A4" s="37" t="str">
         <f>"Từ ngày " &amp; TEXT(K4,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(M4,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2021 đến ngày 31/01/2021</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="J4" s="1" t="s">
         <v>568</v>
       </c>
@@ -31113,17 +31113,17 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="str">
+      <c r="A5" s="37" t="str">
         <f>"Lên cho Quỹ: " &amp; K5 &amp; "-" &amp; VLOOKUP(K5,LIST!$E$6:$F$15,2,0)</f>
         <v>Lên cho Quỹ: TM-Quỹ tiền mặt</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="J5" s="1" t="s">
         <v>121</v>
       </c>
@@ -31142,56 +31142,56 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="38" t="s">
         <v>558</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="38"/>
+      <c r="D8" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
+      <c r="F8" s="38"/>
+      <c r="G8" s="38" t="s">
         <v>562</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="38" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D9" s="38"/>
       <c r="E9" s="13" t="s">
         <v>560</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -32273,6 +32273,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2681A126-B71E-4B1D-AEF4-0F0642F06858}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -32294,31 +32295,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="G3" s="33" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="G3" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="G4" s="1" t="s">
         <v>568</v>
       </c>
@@ -32348,17 +32349,17 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="str">
+      <c r="A6" s="43" t="str">
         <f>"SELECT RECNO(), D.MA_TC, TEN, SUM(IIF(D.MA_TC LIKE 'T%',IIF(ISNUMERIC(TIEN),TIEN,0),0)), SUM(IIF(D.MA_TC LIKE 'C%',IIF(ISNUMERIC(TIEN),TIEN,0),0)) "
 &amp; " FROM DATA D INNER JOIN DMTC T ON D.MA_TC=T.MA_TC "
 &amp; " WHERE NGAY&gt;=CELL(H4) AND NGAY&lt;=CELL(J4) " &amp; IF(H5="",""," AND QUY=CELL(H5) ") &amp; IF(J5="",""," AND MA_DT=CELL(J5) ")
 &amp; " GROUP BY D.MA_TC, TEN"</f>
         <v>SELECT RECNO(), D.MA_TC, TEN, SUM(IIF(D.MA_TC LIKE 'T%',IIF(ISNUMERIC(TIEN),TIEN,0),0)), SUM(IIF(D.MA_TC LIKE 'C%',IIF(ISNUMERIC(TIEN),TIEN,0),0))  FROM DATA D INNER JOIN DMTC T ON D.MA_TC=T.MA_TC  WHERE NGAY&gt;=CELL(H4) AND NGAY&lt;=CELL(J4)  GROUP BY D.MA_TC, TEN</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -32728,14 +32729,14 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <f>SUM(D8:D28)</f>
         <v>1960060000</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <f>SUM(E8:E28)</f>
         <v>1832130000</v>
       </c>
@@ -32743,14 +32744,14 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <f>MAX(D29-E29,0)</f>
         <v>127930000</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <f>-MIN(D29-E29,0)</f>
         <v>0</v>
       </c>
@@ -32787,10 +32788,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8ED632-E03F-495D-9F76-7CAC69436DD4}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32811,40 +32813,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="35" t="s">
         <v>577</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="J3" s="33" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="J3" s="44" t="s">
         <v>575</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="str">
+      <c r="A4" s="37" t="str">
         <f>"Từ ngày " &amp; TEXT(K4,"dd/mm/yyyy") &amp; " đến ngày " &amp; TEXT(M4,"dd/mm/yyyy")</f>
         <v>Từ ngày 01/01/2021 đến ngày 31/01/2021</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="J4" s="1" t="s">
         <v>568</v>
       </c>
@@ -32860,55 +32862,55 @@
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:13" ht="188.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="45" t="s">
         <v>580</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="20"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="38" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="16" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
